--- a/Contabilidad/perdida.xlsx
+++ b/Contabilidad/perdida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Cliente</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Rafael danilo Peña: Nilo</t>
   </si>
   <si>
-    <t>Teresa Lagáre</t>
-  </si>
-  <si>
     <t>Toribio Perdomo Ramirez: Raulin</t>
   </si>
   <si>
@@ -134,13 +131,19 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>amenazas</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +170,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -214,6 +224,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -573,6 +589,9 @@
       <c r="E3">
         <v>76</v>
       </c>
+      <c r="F3" s="3">
+        <v>3000</v>
+      </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="2">
       <c r="A4" t="s">
@@ -590,6 +609,9 @@
       <c r="E4">
         <v>76</v>
       </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:6" outlineLevel="2">
       <c r="A5" t="s">
@@ -607,13 +629,14 @@
       <c r="E5">
         <v>76</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" outlineLevel="2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="C6">
         <v>79</v>
@@ -623,9 +646,6 @@
       </c>
       <c r="E6">
         <v>76</v>
-      </c>
-      <c r="F6">
-        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="2">
@@ -644,6 +664,9 @@
       <c r="E7">
         <v>76</v>
       </c>
+      <c r="F7" s="3">
+        <v>4100</v>
+      </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="2">
       <c r="A8" t="s">
@@ -661,9 +684,6 @@
       <c r="E8">
         <v>76</v>
       </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="2">
       <c r="A9" t="s">
@@ -681,6 +701,9 @@
       <c r="E9">
         <v>76</v>
       </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="2">
       <c r="A10" t="s">
@@ -715,9 +738,6 @@
       <c r="E11">
         <v>76</v>
       </c>
-      <c r="F11">
-        <v>5000</v>
-      </c>
     </row>
     <row r="12" spans="1:6" outlineLevel="2">
       <c r="A12" t="s">
@@ -735,6 +755,9 @@
       <c r="E12">
         <v>76</v>
       </c>
+      <c r="F12" s="3">
+        <v>340</v>
+      </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="2">
       <c r="A13" t="s">
@@ -752,6 +775,9 @@
       <c r="E13">
         <v>76</v>
       </c>
+      <c r="F13" s="3">
+        <v>4000</v>
+      </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="2">
       <c r="A14" t="s">
@@ -786,9 +812,6 @@
       <c r="E15">
         <v>76</v>
       </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
     </row>
     <row r="16" spans="1:6" outlineLevel="2">
       <c r="A16" t="s">
@@ -806,13 +829,16 @@
       <c r="E16">
         <v>76</v>
       </c>
+      <c r="F16" s="3">
+        <v>3815</v>
+      </c>
     </row>
     <row r="17" spans="1:6" outlineLevel="2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="C17">
         <v>79</v>
@@ -822,9 +848,6 @@
       </c>
       <c r="E17">
         <v>76</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:6" outlineLevel="2">
@@ -843,6 +866,9 @@
       <c r="E18">
         <v>76</v>
       </c>
+      <c r="F18">
+        <v>4000</v>
+      </c>
     </row>
     <row r="19" spans="1:6" outlineLevel="2">
       <c r="A19" t="s">
@@ -860,13 +886,16 @@
       <c r="E19">
         <v>76</v>
       </c>
+      <c r="F19" s="3">
+        <v>3500</v>
+      </c>
     </row>
     <row r="20" spans="1:6" outlineLevel="2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C20">
         <v>79</v>
@@ -876,9 +905,6 @@
       </c>
       <c r="E20">
         <v>76</v>
-      </c>
-      <c r="F20">
-        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="2">
@@ -948,6 +974,9 @@
       <c r="E24">
         <v>76</v>
       </c>
+      <c r="F24" s="3">
+        <v>900</v>
+      </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="2">
       <c r="A25" t="s">
@@ -965,9 +994,6 @@
       <c r="E25">
         <v>76</v>
       </c>
-      <c r="F25">
-        <v>500</v>
-      </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="2">
       <c r="A26" t="s">
@@ -985,6 +1011,9 @@
       <c r="E26">
         <v>76</v>
       </c>
+      <c r="F26" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="2">
       <c r="A27" t="s">
@@ -1002,6 +1031,9 @@
       <c r="E27">
         <v>76</v>
       </c>
+      <c r="F27" s="3">
+        <v>3980</v>
+      </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="2">
       <c r="A28" t="s">
@@ -1019,13 +1051,16 @@
       <c r="E28">
         <v>76</v>
       </c>
+      <c r="F28" s="3">
+        <v>1375</v>
+      </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="C29">
         <v>79</v>
@@ -1036,7 +1071,7 @@
       <c r="E29">
         <v>76</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
     </row>
@@ -1045,7 +1080,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="3">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="C30">
         <v>79</v>
@@ -1055,6 +1090,9 @@
       </c>
       <c r="E30">
         <v>76</v>
+      </c>
+      <c r="F30" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="2">
@@ -1062,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>600</v>
+        <v>3850</v>
       </c>
       <c r="C31">
         <v>79</v>
@@ -1072,6 +1110,9 @@
       </c>
       <c r="E31">
         <v>76</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="2">
@@ -1079,7 +1120,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="3">
-        <v>3850</v>
+        <v>1400</v>
       </c>
       <c r="C32">
         <v>79</v>
@@ -1090,8 +1131,8 @@
       <c r="E32">
         <v>76</v>
       </c>
-      <c r="F32">
-        <v>1000</v>
+      <c r="F32" s="3">
+        <v>1400</v>
       </c>
     </row>
     <row r="33" spans="1:7" outlineLevel="2">
@@ -1110,13 +1151,16 @@
       <c r="E33">
         <v>76</v>
       </c>
+      <c r="F33" s="3">
+        <v>1400</v>
+      </c>
     </row>
     <row r="34" spans="1:7" outlineLevel="2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="3">
-        <v>1400</v>
+        <v>4265</v>
       </c>
       <c r="C34">
         <v>79</v>
@@ -1127,43 +1171,35 @@
       <c r="E34">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" outlineLevel="2">
-      <c r="A35" t="s">
+      <c r="F34" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3">
-        <v>4265</v>
-      </c>
-      <c r="C35">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>76</v>
-      </c>
-      <c r="F35">
-        <v>500</v>
-      </c>
+      <c r="B35" s="5">
+        <f>SUM(B2:B34)</f>
+        <v>108685</v>
+      </c>
+      <c r="F35" s="4">
+        <f>SUM(F2:F34)</f>
+        <v>39890</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <f>SUM(B2:B35)</f>
-        <v>118085</v>
-      </c>
-      <c r="F36" s="4">
-        <f>SUM(F2:F35)</f>
-        <v>18500</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="G37" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contabilidad/perdida.xlsx
+++ b/Contabilidad/perdida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cliente</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Brubani Mercedes: Bubo</t>
   </si>
   <si>
-    <t>Carmelo Abreu Ramos:cache</t>
-  </si>
-  <si>
     <t>Domingo Franco: Macaví</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>Eduardo Antonio : Kikito</t>
   </si>
   <si>
-    <t>Ewris Montero Rodriguez el mu</t>
-  </si>
-  <si>
-    <t>Francisco de la Rosa: Franci</t>
-  </si>
-  <si>
     <t>Ismael Lorenzo de Leon</t>
   </si>
   <si>
@@ -85,15 +76,9 @@
     <t>Jose Luis Terrero Perez</t>
   </si>
   <si>
-    <t>Jose Miguel Ballenilla Paniagua</t>
-  </si>
-  <si>
     <t>Kelvin vardez</t>
   </si>
   <si>
-    <t>Kenia Montero Rodriguez</t>
-  </si>
-  <si>
     <t>Luis Manuel Trinidad Perez: el gringo</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
   </si>
   <si>
     <t>Yeison Mariano</t>
-  </si>
-  <si>
-    <t>Yuleide montero rodriguez</t>
   </si>
   <si>
     <t>total</t>
@@ -526,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -636,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="C6">
         <v>79</v>
@@ -646,6 +628,9 @@
       </c>
       <c r="E6">
         <v>76</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="2">
@@ -653,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="C7">
         <v>79</v>
@@ -663,9 +648,6 @@
       </c>
       <c r="E7">
         <v>76</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4100</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="2">
@@ -673,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="C8">
         <v>79</v>
@@ -683,6 +665,9 @@
       </c>
       <c r="E8">
         <v>76</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="2">
@@ -690,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C9">
         <v>79</v>
@@ -702,7 +687,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="2">
@@ -710,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="C10">
         <v>79</v>
@@ -720,6 +705,9 @@
       </c>
       <c r="E10">
         <v>76</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:6" outlineLevel="2">
@@ -727,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>9500</v>
+        <v>900</v>
       </c>
       <c r="C11">
         <v>79</v>
@@ -744,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>340</v>
+        <v>6500</v>
       </c>
       <c r="C12">
         <v>79</v>
@@ -754,9 +742,6 @@
       </c>
       <c r="E12">
         <v>76</v>
-      </c>
-      <c r="F12" s="3">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="2">
@@ -764,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="3">
-        <v>4000</v>
+        <v>3815</v>
       </c>
       <c r="C13">
         <v>79</v>
@@ -776,7 +761,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="3">
-        <v>4000</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="2">
@@ -784,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="C14">
         <v>79</v>
@@ -801,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>6500</v>
+        <v>6460</v>
       </c>
       <c r="C15">
         <v>79</v>
@@ -811,6 +796,9 @@
       </c>
       <c r="E15">
         <v>76</v>
+      </c>
+      <c r="F15">
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:6" outlineLevel="2">
@@ -818,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>3815</v>
+        <v>3500</v>
       </c>
       <c r="C16">
         <v>79</v>
@@ -830,15 +818,15 @@
         <v>76</v>
       </c>
       <c r="F16" s="3">
-        <v>3815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" outlineLevel="2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" outlineLevel="2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>1100</v>
+        <v>11400</v>
       </c>
       <c r="C17">
         <v>79</v>
@@ -850,12 +838,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" outlineLevel="2">
+    <row r="18" spans="1:7" outlineLevel="2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3">
-        <v>6460</v>
+        <v>2250</v>
       </c>
       <c r="C18">
         <v>79</v>
@@ -866,16 +854,13 @@
       <c r="E18">
         <v>76</v>
       </c>
-      <c r="F18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" outlineLevel="2">
+    </row>
+    <row r="19" spans="1:7" outlineLevel="2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="C19">
         <v>79</v>
@@ -887,15 +872,15 @@
         <v>76</v>
       </c>
       <c r="F19" s="3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" outlineLevel="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" outlineLevel="2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="C20">
         <v>79</v>
@@ -907,12 +892,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" outlineLevel="2">
+    <row r="21" spans="1:7" outlineLevel="2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="3">
-        <v>11400</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <v>79</v>
@@ -923,13 +908,16 @@
       <c r="E21">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" outlineLevel="2">
+      <c r="F21" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" outlineLevel="2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3">
-        <v>5870</v>
+        <v>3980</v>
       </c>
       <c r="C22">
         <v>79</v>
@@ -940,13 +928,16 @@
       <c r="E22">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" outlineLevel="2">
+      <c r="F22" s="3">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" outlineLevel="2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>2250</v>
+        <v>1375</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -957,13 +948,16 @@
       <c r="E23">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" outlineLevel="2">
+      <c r="F23" s="3">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" outlineLevel="2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="C24">
         <v>79</v>
@@ -975,15 +969,15 @@
         <v>76</v>
       </c>
       <c r="F24" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" outlineLevel="2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="C25">
         <v>79</v>
@@ -994,13 +988,16 @@
       <c r="E25">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="2">
+      <c r="F25" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" outlineLevel="2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>180</v>
+        <v>3850</v>
       </c>
       <c r="C26">
         <v>79</v>
@@ -1012,15 +1009,15 @@
         <v>76</v>
       </c>
       <c r="F26" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" outlineLevel="2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>3980</v>
+        <v>1400</v>
       </c>
       <c r="C27">
         <v>79</v>
@@ -1032,15 +1029,15 @@
         <v>76</v>
       </c>
       <c r="F27" s="3">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" outlineLevel="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" outlineLevel="2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="3">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="C28">
         <v>79</v>
@@ -1052,154 +1049,34 @@
         <v>76</v>
       </c>
       <c r="F28" s="3">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" outlineLevel="2">
-      <c r="A29" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C29">
-        <v>79</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" outlineLevel="2">
-      <c r="A30" t="s">
+      <c r="B29" s="5">
+        <f>SUM(B2:B28)</f>
+        <v>78950</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUM(F2:F28)</f>
+        <v>36390</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
-        <v>600</v>
-      </c>
-      <c r="C30">
-        <v>79</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>76</v>
-      </c>
-      <c r="F30" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" outlineLevel="2">
-      <c r="A31" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
-        <v>3850</v>
-      </c>
-      <c r="C31">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>76</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" outlineLevel="2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="C32">
-        <v>79</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>76</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" outlineLevel="2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="C33">
-        <v>79</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>76</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" outlineLevel="2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>4265</v>
-      </c>
-      <c r="C34">
-        <v>79</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>76</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="5">
-        <f>SUM(B2:B34)</f>
-        <v>108685</v>
-      </c>
-      <c r="F35" s="4">
-        <f>SUM(F2:F34)</f>
-        <v>39890</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
